--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AC140C-09B4-4AA3-8EA5-476116901A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F659A7-AD8B-4E30-A61B-5E9FB552409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -277,6 +277,243 @@
     <rPh sb="21" eb="25">
       <t>シツモンショウサイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2.添付ファイル表示ボタン」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>添付されたファイルを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル表示ボタン</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決・未解決ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカイケツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回答者名</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回答内容</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回答記入欄</t>
+    <rPh sb="0" eb="5">
+      <t>カイトウキニュウラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>postbutton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>filebutton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solution_label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>answer_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>answer_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>answer_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>navigationmenu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nav_ul</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input_submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>table_td</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ul_li</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_questions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_answers</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_file</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag01～q_tag06</t>
+  </si>
+  <si>
+    <t>done_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ans_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ans_id</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2138,6 +2375,958 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1868FF49-FF92-4E7E-A010-805BD6B53E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1464469" y="5214937"/>
+          <a:ext cx="261937" cy="273844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234315</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3809</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A66380D-F79A-483F-90F7-688CD2AD67EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1484471" y="2819876"/>
+          <a:ext cx="269557" cy="279559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33813</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED55D0B6-7C08-4D45-8319-761098BD0B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1534001" y="3355658"/>
+          <a:ext cx="260032" cy="277654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>20001</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>39527</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C49180-1DD4-4A3C-A15E-2767C952CAF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6520814" y="2796064"/>
+          <a:ext cx="269557" cy="279559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28097</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>55721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A48EC1-13DA-4084-A40A-296B8C9821D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1528285" y="4740592"/>
+          <a:ext cx="269557" cy="268129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21905</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E394EA1A-A324-4C98-B0B8-836829C3806C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5253036" y="5911214"/>
+          <a:ext cx="269557" cy="268129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200499</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6C9009-294C-46A9-A748-89C35E11EF90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181598" y="6306026"/>
+          <a:ext cx="269557" cy="277654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167161</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>158591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>186687</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F588D6B-FA23-4C63-9975-9070BE7298A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2917505" y="7397591"/>
+          <a:ext cx="269557" cy="277654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127158</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882E4A33-3463-454E-B53E-6FAC0EE98A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4107657" y="1551622"/>
+          <a:ext cx="436720" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>174782</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F60CD1C-E13E-476D-BE87-E8E4BA9E1495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="1894998"/>
+          <a:ext cx="401001" cy="287179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160972</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4873BFFF-D6B0-4A54-AAE4-25886178DE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523876" y="2267901"/>
+          <a:ext cx="387190" cy="232411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>162401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>135254</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92451D3F-3DB2-4181-90B0-4D836BB3C4FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="500062" y="10068401"/>
+          <a:ext cx="385286" cy="242412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2464,13 +3653,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BF29" sqref="BF29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA119" sqref="AA119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.6640625" style="1"/>
+    <col min="11" max="11" width="8.88671875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.6640625" style="1"/>
+    <col min="14" max="14" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -5874,7 +7067,9 @@
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
+      <c r="D82" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -5917,7 +7112,9 @@
       <c r="B83" s="6"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -7071,16 +8268,24 @@
     <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="16"/>
+      <c r="C110" s="15">
+        <v>1</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="G110" s="15"/>
-      <c r="H110" s="16"/>
+      <c r="H110" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I110" s="18"/>
       <c r="J110" s="17"/>
       <c r="K110" s="19"/>
-      <c r="L110" s="16"/>
+      <c r="L110" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="M110" s="17"/>
       <c r="N110" s="19"/>
       <c r="O110" s="16"/>
@@ -7113,19 +8318,29 @@
     <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="16"/>
+      <c r="C111" s="15">
+        <v>2</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="16"/>
+      <c r="H111" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I111" s="18"/>
       <c r="J111" s="17"/>
       <c r="K111" s="19"/>
-      <c r="L111" s="16"/>
+      <c r="L111" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="M111" s="17"/>
       <c r="N111" s="19"/>
-      <c r="O111" s="16"/>
+      <c r="O111" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
       <c r="R111" s="19"/>
@@ -7133,11 +8348,15 @@
       <c r="T111" s="19"/>
       <c r="U111" s="16"/>
       <c r="V111" s="19"/>
-      <c r="W111" s="16"/>
+      <c r="W111" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="X111" s="17"/>
       <c r="Y111" s="17"/>
       <c r="Z111" s="19"/>
-      <c r="AA111" s="16"/>
+      <c r="AA111" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="AB111" s="17"/>
       <c r="AC111" s="19"/>
       <c r="AD111" s="16"/>
@@ -7155,19 +8374,29 @@
     <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="16"/>
+      <c r="C112" s="15">
+        <v>3</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="16"/>
+      <c r="H112" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I112" s="18"/>
       <c r="J112" s="17"/>
       <c r="K112" s="19"/>
-      <c r="L112" s="16"/>
+      <c r="L112" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="M112" s="17"/>
       <c r="N112" s="19"/>
-      <c r="O112" s="16"/>
+      <c r="O112" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="19"/>
@@ -7175,11 +8404,15 @@
       <c r="T112" s="19"/>
       <c r="U112" s="16"/>
       <c r="V112" s="19"/>
-      <c r="W112" s="16"/>
+      <c r="W112" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="X112" s="17"/>
       <c r="Y112" s="17"/>
       <c r="Z112" s="19"/>
-      <c r="AA112" s="16"/>
+      <c r="AA112" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="AB112" s="17"/>
       <c r="AC112" s="19"/>
       <c r="AD112" s="16"/>
@@ -7197,19 +8430,29 @@
     <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="16"/>
+      <c r="C113" s="15">
+        <v>4</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="15"/>
-      <c r="H113" s="16"/>
+      <c r="H113" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I113" s="18"/>
       <c r="J113" s="17"/>
       <c r="K113" s="19"/>
-      <c r="L113" s="16"/>
+      <c r="L113" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="M113" s="17"/>
       <c r="N113" s="19"/>
-      <c r="O113" s="16"/>
+      <c r="O113" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
       <c r="R113" s="19"/>
@@ -7217,11 +8460,15 @@
       <c r="T113" s="19"/>
       <c r="U113" s="16"/>
       <c r="V113" s="19"/>
-      <c r="W113" s="16"/>
+      <c r="W113" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="X113" s="17"/>
       <c r="Y113" s="17"/>
       <c r="Z113" s="19"/>
-      <c r="AA113" s="16"/>
+      <c r="AA113" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="AB113" s="17"/>
       <c r="AC113" s="19"/>
       <c r="AD113" s="16"/>
@@ -7239,19 +8486,29 @@
     <row r="114" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="16"/>
+      <c r="C114" s="15">
+        <v>5</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="15"/>
-      <c r="H114" s="16"/>
+      <c r="H114" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="I114" s="18"/>
       <c r="J114" s="17"/>
       <c r="K114" s="19"/>
-      <c r="L114" s="16"/>
+      <c r="L114" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="M114" s="17"/>
       <c r="N114" s="19"/>
-      <c r="O114" s="16"/>
+      <c r="O114" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
       <c r="R114" s="19"/>
@@ -7259,11 +8516,15 @@
       <c r="T114" s="19"/>
       <c r="U114" s="16"/>
       <c r="V114" s="19"/>
-      <c r="W114" s="16"/>
+      <c r="W114" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="X114" s="17"/>
       <c r="Y114" s="17"/>
       <c r="Z114" s="19"/>
-      <c r="AA114" s="16"/>
+      <c r="AA114" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="AB114" s="17"/>
       <c r="AC114" s="19"/>
       <c r="AD114" s="16"/>
@@ -7281,19 +8542,29 @@
     <row r="115" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="16"/>
+      <c r="C115" s="15">
+        <v>6</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
-      <c r="H115" s="16"/>
+      <c r="H115" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
-      <c r="L115" s="16"/>
+      <c r="L115" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
-      <c r="O115" s="16"/>
+      <c r="O115" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
       <c r="R115" s="19"/>
@@ -7301,14 +8572,20 @@
       <c r="T115" s="19"/>
       <c r="U115" s="16"/>
       <c r="V115" s="19"/>
-      <c r="W115" s="16"/>
+      <c r="W115" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="X115" s="17"/>
       <c r="Y115" s="17"/>
       <c r="Z115" s="19"/>
-      <c r="AA115" s="16"/>
+      <c r="AA115" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="AB115" s="17"/>
       <c r="AC115" s="19"/>
-      <c r="AD115" s="16"/>
+      <c r="AD115" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="AE115" s="17"/>
       <c r="AF115" s="17"/>
       <c r="AG115" s="17"/>
@@ -7323,19 +8600,29 @@
     <row r="116" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="16"/>
+      <c r="C116" s="15">
+        <v>7</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
-      <c r="H116" s="16"/>
+      <c r="H116" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I116" s="18"/>
       <c r="J116" s="17"/>
       <c r="K116" s="19"/>
-      <c r="L116" s="16"/>
+      <c r="L116" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="M116" s="17"/>
       <c r="N116" s="19"/>
-      <c r="O116" s="16"/>
+      <c r="O116" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
       <c r="R116" s="19"/>
@@ -7343,11 +8630,15 @@
       <c r="T116" s="19"/>
       <c r="U116" s="16"/>
       <c r="V116" s="19"/>
-      <c r="W116" s="16"/>
+      <c r="W116" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X116" s="17"/>
       <c r="Y116" s="17"/>
       <c r="Z116" s="19"/>
-      <c r="AA116" s="16"/>
+      <c r="AA116" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="AB116" s="17"/>
       <c r="AC116" s="19"/>
       <c r="AD116" s="16"/>
@@ -7365,19 +8656,29 @@
     <row r="117" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="16"/>
+      <c r="C117" s="15">
+        <v>8</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="15"/>
-      <c r="H117" s="16"/>
+      <c r="H117" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="I117" s="18"/>
       <c r="J117" s="17"/>
       <c r="K117" s="19"/>
-      <c r="L117" s="16"/>
+      <c r="L117" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="M117" s="17"/>
       <c r="N117" s="19"/>
-      <c r="O117" s="16"/>
+      <c r="O117" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
       <c r="R117" s="19"/>
@@ -7385,11 +8686,15 @@
       <c r="T117" s="19"/>
       <c r="U117" s="16"/>
       <c r="V117" s="19"/>
-      <c r="W117" s="16"/>
+      <c r="W117" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X117" s="17"/>
       <c r="Y117" s="17"/>
       <c r="Z117" s="19"/>
-      <c r="AA117" s="16"/>
+      <c r="AA117" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="AB117" s="17"/>
       <c r="AC117" s="19"/>
       <c r="AD117" s="16"/>
@@ -7407,19 +8712,29 @@
     <row r="118" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="16"/>
+      <c r="C118" s="15">
+        <v>9</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="15"/>
-      <c r="H118" s="16"/>
+      <c r="H118" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I118" s="18"/>
       <c r="J118" s="17"/>
       <c r="K118" s="19"/>
-      <c r="L118" s="16"/>
+      <c r="L118" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="M118" s="17"/>
       <c r="N118" s="19"/>
-      <c r="O118" s="16"/>
+      <c r="O118" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
       <c r="R118" s="19"/>
@@ -7427,11 +8742,15 @@
       <c r="T118" s="19"/>
       <c r="U118" s="16"/>
       <c r="V118" s="19"/>
-      <c r="W118" s="16"/>
+      <c r="W118" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X118" s="17"/>
       <c r="Y118" s="17"/>
       <c r="Z118" s="19"/>
-      <c r="AA118" s="16"/>
+      <c r="AA118" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="AB118" s="17"/>
       <c r="AC118" s="19"/>
       <c r="AD118" s="16"/>
@@ -7449,16 +8768,24 @@
     <row r="119" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="16"/>
+      <c r="C119" s="15">
+        <v>10</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="15"/>
-      <c r="H119" s="16"/>
+      <c r="H119" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I119" s="18"/>
       <c r="J119" s="17"/>
       <c r="K119" s="19"/>
-      <c r="L119" s="16"/>
+      <c r="L119" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="M119" s="17"/>
       <c r="N119" s="19"/>
       <c r="O119" s="16"/>
@@ -7491,19 +8818,29 @@
     <row r="120" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="16"/>
+      <c r="C120" s="15">
+        <v>11</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="15"/>
-      <c r="H120" s="16"/>
+      <c r="H120" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I120" s="18"/>
       <c r="J120" s="17"/>
       <c r="K120" s="19"/>
-      <c r="L120" s="16"/>
+      <c r="L120" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="M120" s="17"/>
       <c r="N120" s="19"/>
-      <c r="O120" s="16"/>
+      <c r="O120" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
       <c r="R120" s="19"/>
@@ -7533,19 +8870,29 @@
     <row r="121" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="14"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="16"/>
+      <c r="C121" s="15">
+        <v>12</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="15"/>
-      <c r="H121" s="16"/>
+      <c r="H121" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I121" s="18"/>
       <c r="J121" s="17"/>
       <c r="K121" s="19"/>
-      <c r="L121" s="16"/>
+      <c r="L121" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="M121" s="17"/>
       <c r="N121" s="19"/>
-      <c r="O121" s="16"/>
+      <c r="O121" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
       <c r="R121" s="19"/>
@@ -7575,19 +8922,29 @@
     <row r="122" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="16"/>
+      <c r="C122" s="15">
+        <v>13</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="15"/>
-      <c r="H122" s="16"/>
+      <c r="H122" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="I122" s="18"/>
       <c r="J122" s="17"/>
       <c r="K122" s="19"/>
-      <c r="L122" s="16"/>
+      <c r="L122" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M122" s="17"/>
       <c r="N122" s="19"/>
-      <c r="O122" s="16"/>
+      <c r="O122" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
       <c r="R122" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F659A7-AD8B-4E30-A61B-5E9FB552409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C3A261-6E7B-461D-86BB-5A328864E8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -3653,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA119" sqref="AA119"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C3A261-6E7B-461D-86BB-5A328864E8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE9E54B-321C-429B-A590-5FE88AABEC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -280,16 +280,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「2.添付ファイル表示ボタン」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>テンプ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>添付されたファイルを表示する。</t>
     <rPh sb="0" eb="2">
       <t>テンプ</t>
@@ -334,13 +324,6 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>ミカイケツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -399,10 +382,6 @@
   </si>
   <si>
     <t>solution_label</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>question_tag</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -498,13 +477,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>q_tag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>q_tag01～q_tag06</t>
-  </si>
-  <si>
     <t>done_tag</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -515,6 +487,83 @@
   <si>
     <t>ans_id</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2.添付ファイルのリンクを表示」クリック</t>
+    <rPh sb="3" eb="5">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag2</t>
+  </si>
+  <si>
+    <t>question_tag3</t>
+  </si>
+  <si>
+    <t>question_tag4</t>
+  </si>
+  <si>
+    <t>question_tag5</t>
+  </si>
+  <si>
+    <t>質問タグ1</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ2</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ3</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ4</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ5</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag02</t>
+  </si>
+  <si>
+    <t>q_tag03</t>
+  </si>
+  <si>
+    <t>q_tag04</t>
+  </si>
+  <si>
+    <t>q_tag05</t>
   </si>
 </sst>
 </file>
@@ -889,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1021,6 +1070,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1420,7 +1470,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページのタイトル</a:t>
+            <a:t>ページタイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1924,7 +1974,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>添付ファイル表示</a:t>
+            <a:t>添付ファイルのリンク表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2772,8 +2822,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>2380</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>117764</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>5714</xdr:rowOff>
     </xdr:from>
@@ -2796,8 +2846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253036" y="5911214"/>
-          <a:ext cx="269557" cy="268129"/>
+          <a:off x="5604164" y="6018587"/>
+          <a:ext cx="402905" cy="271592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2837,7 +2887,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>11</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2852,7 +2902,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>180973</xdr:colOff>
+      <xdr:colOff>55418</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>19526</xdr:rowOff>
     </xdr:from>
@@ -2875,8 +2925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181598" y="6306026"/>
-          <a:ext cx="269557" cy="277654"/>
+          <a:off x="5541818" y="6420326"/>
+          <a:ext cx="394463" cy="281118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2916,7 +2966,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8</a:t>
+            <a:t>12</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2931,7 +2981,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>167161</xdr:colOff>
+      <xdr:colOff>55418</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>158591</xdr:rowOff>
     </xdr:from>
@@ -2954,8 +3004,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2917505" y="7397591"/>
-          <a:ext cx="269557" cy="277654"/>
+          <a:off x="3158836" y="7529209"/>
+          <a:ext cx="380651" cy="284581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2995,7 +3045,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3074,10 +3124,8 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>14</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -3155,10 +3203,8 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>15</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -3236,7 +3282,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12</a:t>
+            <a:t>16</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3315,7 +3361,403 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>17</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>145473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="吹き出し: 四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBC6AFF-7229-4E0A-B6CF-C470CE22BDF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9511145" y="6158345"/>
+          <a:ext cx="2985655" cy="775855"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52620"/>
+            <a:gd name="adj2" fmla="val 78327"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>複数人の回答があった場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この下に表示していく。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示順は上から「回答日時が古い順」。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4E3B6A-E343-44A7-ACF2-70E5702F15BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3107703" y="4844501"/>
+          <a:ext cx="268908" cy="275057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>212103</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231629</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E79392C-BA99-4E2D-AF6D-4EC00E00414B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4451594" y="4837574"/>
+          <a:ext cx="268908" cy="275057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>177466</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>196992</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6BE1F9-4931-4A68-9B19-185F1D537868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5663866" y="4809865"/>
+          <a:ext cx="268908" cy="275057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>80483</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>249380</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>187340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A821624A-A5C4-4B7B-9F3B-7287B61D6337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6813792" y="4761374"/>
+          <a:ext cx="418279" cy="275057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3328,6 +3770,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3653,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AG116" sqref="AG116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7068,7 +7514,7 @@
       <c r="B82" s="6"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -7113,7 +7559,7 @@
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -8215,7 +8661,7 @@
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="16" t="s">
+      <c r="H109" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I109" s="18"/>
@@ -8272,19 +8718,19 @@
         <v>1</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="G110" s="15"/>
-      <c r="H110" s="16" t="s">
-        <v>30</v>
+      <c r="H110" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="17"/>
       <c r="K110" s="19"/>
       <c r="L110" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M110" s="17"/>
       <c r="N110" s="19"/>
@@ -8322,24 +8768,24 @@
         <v>2</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="16" t="s">
-        <v>31</v>
+      <c r="H111" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="17"/>
       <c r="K111" s="19"/>
       <c r="L111" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M111" s="17"/>
       <c r="N111" s="19"/>
       <c r="O111" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
@@ -8349,13 +8795,13 @@
       <c r="U111" s="16"/>
       <c r="V111" s="19"/>
       <c r="W111" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X111" s="17"/>
       <c r="Y111" s="17"/>
       <c r="Z111" s="19"/>
       <c r="AA111" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB111" s="17"/>
       <c r="AC111" s="19"/>
@@ -8378,24 +8824,24 @@
         <v>3</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="16" t="s">
-        <v>32</v>
+      <c r="H112" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="17"/>
       <c r="K112" s="19"/>
       <c r="L112" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M112" s="17"/>
       <c r="N112" s="19"/>
       <c r="O112" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
@@ -8405,13 +8851,13 @@
       <c r="U112" s="16"/>
       <c r="V112" s="19"/>
       <c r="W112" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X112" s="17"/>
       <c r="Y112" s="17"/>
       <c r="Z112" s="19"/>
       <c r="AA112" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB112" s="17"/>
       <c r="AC112" s="19"/>
@@ -8434,24 +8880,24 @@
         <v>4</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="15"/>
-      <c r="H113" s="16" t="s">
-        <v>33</v>
+      <c r="H113" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="17"/>
       <c r="K113" s="19"/>
       <c r="L113" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M113" s="17"/>
       <c r="N113" s="19"/>
       <c r="O113" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
@@ -8461,13 +8907,13 @@
       <c r="U113" s="16"/>
       <c r="V113" s="19"/>
       <c r="W113" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X113" s="17"/>
       <c r="Y113" s="17"/>
       <c r="Z113" s="19"/>
       <c r="AA113" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AB113" s="17"/>
       <c r="AC113" s="19"/>
@@ -8490,24 +8936,24 @@
         <v>5</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="15"/>
-      <c r="H114" s="16" t="s">
-        <v>34</v>
+      <c r="H114" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="I114" s="18"/>
       <c r="J114" s="17"/>
       <c r="K114" s="19"/>
       <c r="L114" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M114" s="17"/>
       <c r="N114" s="19"/>
       <c r="O114" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
@@ -8517,13 +8963,13 @@
       <c r="U114" s="16"/>
       <c r="V114" s="19"/>
       <c r="W114" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X114" s="17"/>
       <c r="Y114" s="17"/>
       <c r="Z114" s="19"/>
       <c r="AA114" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB114" s="17"/>
       <c r="AC114" s="19"/>
@@ -8546,24 +8992,24 @@
         <v>6</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
-      <c r="H115" s="16" t="s">
-        <v>35</v>
+      <c r="H115" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
       <c r="L115" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
       <c r="O115" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
@@ -8573,19 +9019,17 @@
       <c r="U115" s="16"/>
       <c r="V115" s="19"/>
       <c r="W115" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X115" s="17"/>
       <c r="Y115" s="17"/>
       <c r="Z115" s="19"/>
       <c r="AA115" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AB115" s="17"/>
       <c r="AC115" s="19"/>
-      <c r="AD115" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="AD115" s="16"/>
       <c r="AE115" s="17"/>
       <c r="AF115" s="17"/>
       <c r="AG115" s="17"/>
@@ -8604,43 +9048,43 @@
         <v>7</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
-      <c r="H116" s="16" t="s">
-        <v>36</v>
+      <c r="H116" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="I116" s="18"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="19"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="15"/>
       <c r="L116" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M116" s="17"/>
-      <c r="N116" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="M116" s="18"/>
+      <c r="N116" s="15"/>
       <c r="O116" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="19"/>
-      <c r="S116" s="16"/>
-      <c r="T116" s="19"/>
-      <c r="U116" s="16"/>
-      <c r="V116" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="15"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="15"/>
+      <c r="U116" s="18"/>
+      <c r="V116" s="15"/>
       <c r="W116" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X116" s="17"/>
-      <c r="Y116" s="17"/>
-      <c r="Z116" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="X116" s="18"/>
+      <c r="Y116" s="18"/>
+      <c r="Z116" s="15"/>
       <c r="AA116" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB116" s="17"/>
-      <c r="AC116" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="AB116" s="18"/>
+      <c r="AC116" s="15"/>
       <c r="AD116" s="16"/>
       <c r="AE116" s="17"/>
       <c r="AF116" s="17"/>
@@ -8660,43 +9104,43 @@
         <v>8</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="15"/>
-      <c r="H117" s="16" t="s">
-        <v>37</v>
+      <c r="H117" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="I117" s="18"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="19"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="15"/>
       <c r="L117" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M117" s="17"/>
-      <c r="N117" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="M117" s="18"/>
+      <c r="N117" s="15"/>
       <c r="O117" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
-      <c r="R117" s="19"/>
-      <c r="S117" s="16"/>
-      <c r="T117" s="19"/>
-      <c r="U117" s="16"/>
-      <c r="V117" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="18"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="18"/>
+      <c r="T117" s="15"/>
+      <c r="U117" s="18"/>
+      <c r="V117" s="15"/>
       <c r="W117" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X117" s="17"/>
-      <c r="Y117" s="17"/>
-      <c r="Z117" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="X117" s="18"/>
+      <c r="Y117" s="18"/>
+      <c r="Z117" s="15"/>
       <c r="AA117" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB117" s="17"/>
-      <c r="AC117" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="AB117" s="18"/>
+      <c r="AC117" s="15"/>
       <c r="AD117" s="16"/>
       <c r="AE117" s="17"/>
       <c r="AF117" s="17"/>
@@ -8716,43 +9160,43 @@
         <v>9</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="15"/>
-      <c r="H118" s="16" t="s">
-        <v>38</v>
+      <c r="H118" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="I118" s="18"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="19"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="15"/>
       <c r="L118" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M118" s="17"/>
-      <c r="N118" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="M118" s="18"/>
+      <c r="N118" s="15"/>
       <c r="O118" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="19"/>
-      <c r="S118" s="16"/>
-      <c r="T118" s="19"/>
-      <c r="U118" s="16"/>
-      <c r="V118" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="15"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="15"/>
+      <c r="U118" s="18"/>
+      <c r="V118" s="15"/>
       <c r="W118" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="17"/>
-      <c r="Z118" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="X118" s="18"/>
+      <c r="Y118" s="18"/>
+      <c r="Z118" s="15"/>
       <c r="AA118" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB118" s="17"/>
-      <c r="AC118" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="AB118" s="18"/>
+      <c r="AC118" s="15"/>
       <c r="AD118" s="16"/>
       <c r="AE118" s="17"/>
       <c r="AF118" s="17"/>
@@ -8772,37 +9216,32 @@
         <v>10</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="15"/>
-      <c r="H119" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I119" s="18"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="19"/>
+      <c r="H119" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K119" s="47"/>
       <c r="L119" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M119" s="17"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="19"/>
-      <c r="S119" s="16"/>
-      <c r="T119" s="19"/>
-      <c r="U119" s="16"/>
-      <c r="V119" s="19"/>
-      <c r="W119" s="16"/>
-      <c r="X119" s="17"/>
-      <c r="Y119" s="17"/>
-      <c r="Z119" s="19"/>
-      <c r="AA119" s="16"/>
-      <c r="AB119" s="17"/>
-      <c r="AC119" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="N119" s="47"/>
+      <c r="O119" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R119" s="47"/>
+      <c r="T119" s="47"/>
+      <c r="V119" s="47"/>
+      <c r="W119" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z119" s="47"/>
+      <c r="AA119" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="AD119" s="16"/>
       <c r="AE119" s="17"/>
       <c r="AF119" s="17"/>
@@ -8822,24 +9261,24 @@
         <v>11</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="15"/>
-      <c r="H120" s="16" t="s">
-        <v>40</v>
+      <c r="H120" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="17"/>
       <c r="K120" s="19"/>
       <c r="L120" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M120" s="17"/>
       <c r="N120" s="19"/>
       <c r="O120" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
@@ -8848,11 +9287,15 @@
       <c r="T120" s="19"/>
       <c r="U120" s="16"/>
       <c r="V120" s="19"/>
-      <c r="W120" s="16"/>
+      <c r="W120" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="X120" s="17"/>
       <c r="Y120" s="17"/>
       <c r="Z120" s="19"/>
-      <c r="AA120" s="16"/>
+      <c r="AA120" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="AB120" s="17"/>
       <c r="AC120" s="19"/>
       <c r="AD120" s="16"/>
@@ -8874,24 +9317,24 @@
         <v>12</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="15"/>
       <c r="H121" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I121" s="18"/>
       <c r="J121" s="17"/>
       <c r="K121" s="19"/>
       <c r="L121" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M121" s="17"/>
       <c r="N121" s="19"/>
       <c r="O121" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
@@ -8900,11 +9343,15 @@
       <c r="T121" s="19"/>
       <c r="U121" s="16"/>
       <c r="V121" s="19"/>
-      <c r="W121" s="16"/>
+      <c r="W121" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="X121" s="17"/>
       <c r="Y121" s="17"/>
       <c r="Z121" s="19"/>
-      <c r="AA121" s="16"/>
+      <c r="AA121" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="AB121" s="17"/>
       <c r="AC121" s="19"/>
       <c r="AD121" s="16"/>
@@ -8926,24 +9373,24 @@
         <v>13</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="15"/>
       <c r="H122" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I122" s="18"/>
       <c r="J122" s="17"/>
       <c r="K122" s="19"/>
       <c r="L122" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M122" s="17"/>
       <c r="N122" s="19"/>
       <c r="O122" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
@@ -8952,11 +9399,15 @@
       <c r="T122" s="19"/>
       <c r="U122" s="16"/>
       <c r="V122" s="19"/>
-      <c r="W122" s="16"/>
+      <c r="W122" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="X122" s="17"/>
       <c r="Y122" s="17"/>
       <c r="Z122" s="19"/>
-      <c r="AA122" s="16"/>
+      <c r="AA122" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="AB122" s="17"/>
       <c r="AC122" s="19"/>
       <c r="AD122" s="16"/>
@@ -8974,16 +9425,24 @@
     <row r="123" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="16"/>
+      <c r="C123" s="15">
+        <v>14</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
       <c r="G123" s="15"/>
-      <c r="H123" s="16"/>
+      <c r="H123" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="I123" s="18"/>
       <c r="J123" s="17"/>
       <c r="K123" s="19"/>
-      <c r="L123" s="16"/>
+      <c r="L123" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="M123" s="17"/>
       <c r="N123" s="19"/>
       <c r="O123" s="16"/>
@@ -9016,16 +9475,24 @@
     <row r="124" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="16"/>
+      <c r="C124" s="15">
+        <v>15</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
       <c r="G124" s="15"/>
-      <c r="H124" s="16"/>
+      <c r="H124" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I124" s="18"/>
       <c r="J124" s="17"/>
       <c r="K124" s="19"/>
-      <c r="L124" s="16"/>
+      <c r="L124" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="M124" s="17"/>
       <c r="N124" s="19"/>
       <c r="O124" s="16"/>
@@ -9058,16 +9525,24 @@
     <row r="125" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="16"/>
+      <c r="C125" s="15">
+        <v>16</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="G125" s="15"/>
-      <c r="H125" s="16"/>
+      <c r="H125" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I125" s="18"/>
       <c r="J125" s="17"/>
       <c r="K125" s="19"/>
-      <c r="L125" s="16"/>
+      <c r="L125" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="M125" s="17"/>
       <c r="N125" s="19"/>
       <c r="O125" s="16"/>
@@ -9100,16 +9575,24 @@
     <row r="126" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="16"/>
+      <c r="C126" s="15">
+        <v>17</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="G126" s="15"/>
-      <c r="H126" s="16"/>
+      <c r="H126" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I126" s="18"/>
       <c r="J126" s="17"/>
       <c r="K126" s="19"/>
-      <c r="L126" s="16"/>
+      <c r="L126" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="M126" s="17"/>
       <c r="N126" s="19"/>
       <c r="O126" s="16"/>

--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE9E54B-321C-429B-A590-5FE88AABEC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B78AB-498E-4F7A-B4B0-0EB0CC3DC123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -297,13 +297,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ファイル表示ボタン</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>質問タイトル</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -369,10 +362,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>filebutton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>question_title</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -430,10 +419,6 @@
   </si>
   <si>
     <t>input_submit</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>input</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -564,6 +549,52 @@
   </si>
   <si>
     <t>q_tag05</t>
+  </si>
+  <si>
+    <t>質問詳細+回答一覧</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カイトウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中岡稜</t>
+    <rPh sb="0" eb="3">
+      <t>ナカオカリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>添付ファイルリンク</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>file_link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -938,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -995,6 +1026,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,7 +1102,9 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3772,10 +3806,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4099,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG116" sqref="AG116"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S119" sqref="S119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4113,146 +4143,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="46" t="s">
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="48">
+        <v>44356</v>
+      </c>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="39"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7514,7 +7552,7 @@
       <c r="B82" s="6"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -8718,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
@@ -8730,7 +8768,7 @@
       <c r="J110" s="17"/>
       <c r="K110" s="19"/>
       <c r="L110" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M110" s="17"/>
       <c r="N110" s="19"/>
@@ -8768,24 +8806,24 @@
         <v>2</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="15"/>
       <c r="H111" s="17" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="17"/>
       <c r="K111" s="19"/>
       <c r="L111" s="16" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="M111" s="17"/>
       <c r="N111" s="19"/>
       <c r="O111" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
@@ -8795,13 +8833,13 @@
       <c r="U111" s="16"/>
       <c r="V111" s="19"/>
       <c r="W111" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X111" s="17"/>
       <c r="Y111" s="17"/>
       <c r="Z111" s="19"/>
       <c r="AA111" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB111" s="17"/>
       <c r="AC111" s="19"/>
@@ -8824,40 +8862,44 @@
         <v>3</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="15"/>
       <c r="H112" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="17"/>
       <c r="K112" s="19"/>
       <c r="L112" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M112" s="17"/>
       <c r="N112" s="19"/>
       <c r="O112" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="19"/>
-      <c r="S112" s="16"/>
+      <c r="S112" s="16">
+        <v>1</v>
+      </c>
       <c r="T112" s="19"/>
-      <c r="U112" s="16"/>
+      <c r="U112" s="16">
+        <v>80</v>
+      </c>
       <c r="V112" s="19"/>
       <c r="W112" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X112" s="17"/>
       <c r="Y112" s="17"/>
       <c r="Z112" s="19"/>
       <c r="AA112" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AB112" s="17"/>
       <c r="AC112" s="19"/>
@@ -8880,40 +8922,44 @@
         <v>4</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="15"/>
       <c r="H113" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="17"/>
       <c r="K113" s="19"/>
       <c r="L113" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M113" s="17"/>
       <c r="N113" s="19"/>
       <c r="O113" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
       <c r="R113" s="19"/>
-      <c r="S113" s="16"/>
+      <c r="S113" s="16">
+        <v>1</v>
+      </c>
       <c r="T113" s="19"/>
-      <c r="U113" s="16"/>
+      <c r="U113" s="16">
+        <v>500</v>
+      </c>
       <c r="V113" s="19"/>
       <c r="W113" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X113" s="17"/>
       <c r="Y113" s="17"/>
       <c r="Z113" s="19"/>
       <c r="AA113" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB113" s="17"/>
       <c r="AC113" s="19"/>
@@ -8936,40 +8982,44 @@
         <v>5</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="15"/>
       <c r="H114" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I114" s="18"/>
       <c r="J114" s="17"/>
       <c r="K114" s="19"/>
       <c r="L114" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M114" s="17"/>
       <c r="N114" s="19"/>
       <c r="O114" s="16" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
       <c r="R114" s="19"/>
-      <c r="S114" s="16"/>
+      <c r="S114" s="16">
+        <v>0</v>
+      </c>
       <c r="T114" s="19"/>
-      <c r="U114" s="16"/>
+      <c r="U114" s="16">
+        <v>1</v>
+      </c>
       <c r="V114" s="19"/>
       <c r="W114" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X114" s="17"/>
       <c r="Y114" s="17"/>
       <c r="Z114" s="19"/>
       <c r="AA114" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB114" s="17"/>
       <c r="AC114" s="19"/>
@@ -8992,40 +9042,42 @@
         <v>6</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
       <c r="H115" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
       <c r="L115" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
       <c r="O115" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
       <c r="R115" s="19"/>
       <c r="S115" s="16"/>
       <c r="T115" s="19"/>
-      <c r="U115" s="16"/>
+      <c r="U115" s="16">
+        <v>30</v>
+      </c>
       <c r="V115" s="19"/>
       <c r="W115" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X115" s="17"/>
       <c r="Y115" s="17"/>
       <c r="Z115" s="19"/>
       <c r="AA115" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AB115" s="17"/>
       <c r="AC115" s="19"/>
@@ -9048,40 +9100,42 @@
         <v>7</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
       <c r="H116" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="18"/>
       <c r="K116" s="15"/>
       <c r="L116" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M116" s="18"/>
       <c r="N116" s="15"/>
       <c r="O116" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
       <c r="R116" s="15"/>
       <c r="S116" s="18"/>
       <c r="T116" s="15"/>
-      <c r="U116" s="18"/>
+      <c r="U116" s="18">
+        <v>30</v>
+      </c>
       <c r="V116" s="15"/>
       <c r="W116" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X116" s="18"/>
       <c r="Y116" s="18"/>
       <c r="Z116" s="15"/>
       <c r="AA116" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AB116" s="18"/>
       <c r="AC116" s="15"/>
@@ -9104,40 +9158,42 @@
         <v>8</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="15"/>
       <c r="H117" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="18"/>
       <c r="K117" s="15"/>
       <c r="L117" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M117" s="18"/>
       <c r="N117" s="15"/>
       <c r="O117" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
       <c r="R117" s="15"/>
       <c r="S117" s="18"/>
       <c r="T117" s="15"/>
-      <c r="U117" s="18"/>
+      <c r="U117" s="18">
+        <v>30</v>
+      </c>
       <c r="V117" s="15"/>
       <c r="W117" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X117" s="18"/>
       <c r="Y117" s="18"/>
       <c r="Z117" s="15"/>
       <c r="AA117" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB117" s="18"/>
       <c r="AC117" s="15"/>
@@ -9160,40 +9216,42 @@
         <v>9</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="15"/>
       <c r="H118" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
       <c r="K118" s="15"/>
       <c r="L118" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M118" s="18"/>
       <c r="N118" s="15"/>
       <c r="O118" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
       <c r="R118" s="15"/>
       <c r="S118" s="18"/>
       <c r="T118" s="15"/>
-      <c r="U118" s="18"/>
+      <c r="U118" s="18">
+        <v>30</v>
+      </c>
       <c r="V118" s="15"/>
       <c r="W118" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X118" s="18"/>
       <c r="Y118" s="18"/>
       <c r="Z118" s="15"/>
       <c r="AA118" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AB118" s="18"/>
       <c r="AC118" s="15"/>
@@ -9216,31 +9274,34 @@
         <v>10</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="15"/>
       <c r="H119" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K119" s="47"/>
+        <v>79</v>
+      </c>
+      <c r="K119" s="22"/>
       <c r="L119" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N119" s="22"/>
+      <c r="O119" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R119" s="22"/>
+      <c r="T119" s="22"/>
+      <c r="U119" s="1">
+        <v>30</v>
+      </c>
+      <c r="V119" s="22"/>
+      <c r="W119" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N119" s="47"/>
-      <c r="O119" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="R119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="V119" s="47"/>
-      <c r="W119" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z119" s="47"/>
+      <c r="Z119" s="22"/>
       <c r="AA119" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AD119" s="16"/>
       <c r="AE119" s="17"/>
@@ -9261,40 +9322,44 @@
         <v>11</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="15"/>
       <c r="H120" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="17"/>
       <c r="K120" s="19"/>
       <c r="L120" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M120" s="17"/>
       <c r="N120" s="19"/>
       <c r="O120" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
       <c r="R120" s="19"/>
-      <c r="S120" s="16"/>
+      <c r="S120" s="16">
+        <v>1</v>
+      </c>
       <c r="T120" s="19"/>
-      <c r="U120" s="16"/>
+      <c r="U120" s="16">
+        <v>30</v>
+      </c>
       <c r="V120" s="19"/>
       <c r="W120" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X120" s="17"/>
       <c r="Y120" s="17"/>
       <c r="Z120" s="19"/>
       <c r="AA120" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AB120" s="17"/>
       <c r="AC120" s="19"/>
@@ -9317,40 +9382,44 @@
         <v>12</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="15"/>
       <c r="H121" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I121" s="18"/>
       <c r="J121" s="17"/>
       <c r="K121" s="19"/>
       <c r="L121" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M121" s="17"/>
       <c r="N121" s="19"/>
       <c r="O121" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
       <c r="R121" s="19"/>
-      <c r="S121" s="16"/>
+      <c r="S121" s="16">
+        <v>1</v>
+      </c>
       <c r="T121" s="19"/>
-      <c r="U121" s="16"/>
+      <c r="U121" s="16">
+        <v>500</v>
+      </c>
       <c r="V121" s="19"/>
       <c r="W121" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X121" s="17"/>
       <c r="Y121" s="17"/>
       <c r="Z121" s="19"/>
       <c r="AA121" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB121" s="17"/>
       <c r="AC121" s="19"/>
@@ -9373,40 +9442,44 @@
         <v>13</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="15"/>
       <c r="H122" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I122" s="18"/>
       <c r="J122" s="17"/>
       <c r="K122" s="19"/>
       <c r="L122" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M122" s="17"/>
       <c r="N122" s="19"/>
       <c r="O122" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
       <c r="R122" s="19"/>
-      <c r="S122" s="16"/>
+      <c r="S122" s="16">
+        <v>1</v>
+      </c>
       <c r="T122" s="19"/>
-      <c r="U122" s="16"/>
+      <c r="U122" s="16">
+        <v>500</v>
+      </c>
       <c r="V122" s="19"/>
       <c r="W122" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X122" s="17"/>
       <c r="Y122" s="17"/>
       <c r="Z122" s="19"/>
       <c r="AA122" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB122" s="17"/>
       <c r="AC122" s="19"/>
@@ -9429,19 +9502,19 @@
         <v>14</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
       <c r="G123" s="15"/>
       <c r="H123" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I123" s="18"/>
       <c r="J123" s="17"/>
       <c r="K123" s="19"/>
       <c r="L123" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M123" s="17"/>
       <c r="N123" s="19"/>
@@ -9479,19 +9552,19 @@
         <v>15</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
       <c r="G124" s="15"/>
       <c r="H124" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I124" s="18"/>
       <c r="J124" s="17"/>
       <c r="K124" s="19"/>
       <c r="L124" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M124" s="17"/>
       <c r="N124" s="19"/>
@@ -9529,19 +9602,19 @@
         <v>16</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="G125" s="15"/>
       <c r="H125" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I125" s="18"/>
       <c r="J125" s="17"/>
       <c r="K125" s="19"/>
       <c r="L125" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M125" s="17"/>
       <c r="N125" s="19"/>
@@ -9579,19 +9652,19 @@
         <v>17</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="G126" s="15"/>
       <c r="H126" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I126" s="18"/>
       <c r="J126" s="17"/>
       <c r="K126" s="19"/>
       <c r="L126" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M126" s="17"/>
       <c r="N126" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B78AB-498E-4F7A-B4B0-0EB0CC3DC123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BDF90-A6E3-4853-B732-88718510A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1090,6 +1090,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,9 +1103,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4129,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S119" sqref="S119"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U111" sqref="U111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4184,10 +4184,10 @@
       <c r="AC1" s="33"/>
       <c r="AD1" s="33"/>
       <c r="AE1" s="33"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
+      <c r="AG1" s="48"/>
       <c r="AH1" s="40"/>
       <c r="AI1" s="40"/>
       <c r="AJ1" s="40"/>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="43"/>
-      <c r="Y2" s="48">
+      <c r="Y2" s="44">
         <v>44356</v>
       </c>
       <c r="Z2" s="43"/>
@@ -4236,17 +4236,17 @@
       <c r="AC2" s="43"/>
       <c r="AD2" s="43"/>
       <c r="AE2" s="43"/>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="47"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
@@ -8830,7 +8830,9 @@
       <c r="R111" s="19"/>
       <c r="S111" s="16"/>
       <c r="T111" s="19"/>
-      <c r="U111" s="16"/>
+      <c r="U111" s="16">
+        <v>255</v>
+      </c>
       <c r="V111" s="19"/>
       <c r="W111" s="16" t="s">
         <v>61</v>

--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BDF90-A6E3-4853-B732-88718510A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE9E54B-321C-429B-A590-5FE88AABEC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -297,6 +297,13 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>ファイル表示ボタン</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>質問タイトル</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -362,6 +369,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>filebutton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>question_title</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -419,6 +430,10 @@
   </si>
   <si>
     <t>input_submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -549,52 +564,6 @@
   </si>
   <si>
     <t>q_tag05</t>
-  </si>
-  <si>
-    <t>質問詳細+回答一覧</t>
-    <rPh sb="0" eb="4">
-      <t>シツモンショウサイ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>カイトウイチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問・相談システム</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソウダン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>中岡稜</t>
-    <rPh sb="0" eb="3">
-      <t>ナカオカリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>添付ファイルリンク</t>
-    <rPh sb="0" eb="2">
-      <t>テンプ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>file_link</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -969,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1026,7 +995,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,9 +1058,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,6 +1070,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3806,6 +3772,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4129,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U111" sqref="U111"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AG116" sqref="AG116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4143,154 +4113,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="48" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="44">
-        <v>44356</v>
-      </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="45" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="47"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="39"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7552,7 +7514,7 @@
       <c r="B82" s="6"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -8756,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
@@ -8768,7 +8730,7 @@
       <c r="J110" s="17"/>
       <c r="K110" s="19"/>
       <c r="L110" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M110" s="17"/>
       <c r="N110" s="19"/>
@@ -8806,42 +8768,40 @@
         <v>2</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="15"/>
       <c r="H111" s="17" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="17"/>
       <c r="K111" s="19"/>
       <c r="L111" s="16" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="M111" s="17"/>
       <c r="N111" s="19"/>
       <c r="O111" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
       <c r="R111" s="19"/>
       <c r="S111" s="16"/>
       <c r="T111" s="19"/>
-      <c r="U111" s="16">
-        <v>255</v>
-      </c>
+      <c r="U111" s="16"/>
       <c r="V111" s="19"/>
       <c r="W111" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X111" s="17"/>
       <c r="Y111" s="17"/>
       <c r="Z111" s="19"/>
       <c r="AA111" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AB111" s="17"/>
       <c r="AC111" s="19"/>
@@ -8864,44 +8824,40 @@
         <v>3</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="15"/>
       <c r="H112" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="17"/>
       <c r="K112" s="19"/>
       <c r="L112" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M112" s="17"/>
       <c r="N112" s="19"/>
       <c r="O112" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="19"/>
-      <c r="S112" s="16">
-        <v>1</v>
-      </c>
+      <c r="S112" s="16"/>
       <c r="T112" s="19"/>
-      <c r="U112" s="16">
-        <v>80</v>
-      </c>
+      <c r="U112" s="16"/>
       <c r="V112" s="19"/>
       <c r="W112" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X112" s="17"/>
       <c r="Y112" s="17"/>
       <c r="Z112" s="19"/>
       <c r="AA112" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AB112" s="17"/>
       <c r="AC112" s="19"/>
@@ -8924,44 +8880,40 @@
         <v>4</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="15"/>
       <c r="H113" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="17"/>
       <c r="K113" s="19"/>
       <c r="L113" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M113" s="17"/>
       <c r="N113" s="19"/>
       <c r="O113" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
       <c r="R113" s="19"/>
-      <c r="S113" s="16">
-        <v>1</v>
-      </c>
+      <c r="S113" s="16"/>
       <c r="T113" s="19"/>
-      <c r="U113" s="16">
-        <v>500</v>
-      </c>
+      <c r="U113" s="16"/>
       <c r="V113" s="19"/>
       <c r="W113" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X113" s="17"/>
       <c r="Y113" s="17"/>
       <c r="Z113" s="19"/>
       <c r="AA113" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AB113" s="17"/>
       <c r="AC113" s="19"/>
@@ -8984,44 +8936,40 @@
         <v>5</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="15"/>
       <c r="H114" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I114" s="18"/>
       <c r="J114" s="17"/>
       <c r="K114" s="19"/>
       <c r="L114" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M114" s="17"/>
       <c r="N114" s="19"/>
       <c r="O114" s="16" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
       <c r="R114" s="19"/>
-      <c r="S114" s="16">
-        <v>0</v>
-      </c>
+      <c r="S114" s="16"/>
       <c r="T114" s="19"/>
-      <c r="U114" s="16">
-        <v>1</v>
-      </c>
+      <c r="U114" s="16"/>
       <c r="V114" s="19"/>
       <c r="W114" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X114" s="17"/>
       <c r="Y114" s="17"/>
       <c r="Z114" s="19"/>
       <c r="AA114" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AB114" s="17"/>
       <c r="AC114" s="19"/>
@@ -9044,42 +8992,40 @@
         <v>6</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
       <c r="H115" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
       <c r="L115" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
       <c r="O115" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
       <c r="R115" s="19"/>
       <c r="S115" s="16"/>
       <c r="T115" s="19"/>
-      <c r="U115" s="16">
-        <v>30</v>
-      </c>
+      <c r="U115" s="16"/>
       <c r="V115" s="19"/>
       <c r="W115" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X115" s="17"/>
       <c r="Y115" s="17"/>
       <c r="Z115" s="19"/>
       <c r="AA115" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB115" s="17"/>
       <c r="AC115" s="19"/>
@@ -9102,42 +9048,40 @@
         <v>7</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
       <c r="H116" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="18"/>
       <c r="K116" s="15"/>
       <c r="L116" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M116" s="18"/>
       <c r="N116" s="15"/>
       <c r="O116" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
       <c r="R116" s="15"/>
       <c r="S116" s="18"/>
       <c r="T116" s="15"/>
-      <c r="U116" s="18">
-        <v>30</v>
-      </c>
+      <c r="U116" s="18"/>
       <c r="V116" s="15"/>
       <c r="W116" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X116" s="18"/>
       <c r="Y116" s="18"/>
       <c r="Z116" s="15"/>
       <c r="AA116" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AB116" s="18"/>
       <c r="AC116" s="15"/>
@@ -9160,42 +9104,40 @@
         <v>8</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="15"/>
       <c r="H117" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="18"/>
       <c r="K117" s="15"/>
       <c r="L117" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M117" s="18"/>
       <c r="N117" s="15"/>
       <c r="O117" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
       <c r="R117" s="15"/>
       <c r="S117" s="18"/>
       <c r="T117" s="15"/>
-      <c r="U117" s="18">
-        <v>30</v>
-      </c>
+      <c r="U117" s="18"/>
       <c r="V117" s="15"/>
       <c r="W117" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X117" s="18"/>
       <c r="Y117" s="18"/>
       <c r="Z117" s="15"/>
       <c r="AA117" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB117" s="18"/>
       <c r="AC117" s="15"/>
@@ -9218,42 +9160,40 @@
         <v>9</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="15"/>
       <c r="H118" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
       <c r="K118" s="15"/>
       <c r="L118" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M118" s="18"/>
       <c r="N118" s="15"/>
       <c r="O118" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
       <c r="R118" s="15"/>
       <c r="S118" s="18"/>
       <c r="T118" s="15"/>
-      <c r="U118" s="18">
-        <v>30</v>
-      </c>
+      <c r="U118" s="18"/>
       <c r="V118" s="15"/>
       <c r="W118" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X118" s="18"/>
       <c r="Y118" s="18"/>
       <c r="Z118" s="15"/>
       <c r="AA118" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB118" s="18"/>
       <c r="AC118" s="15"/>
@@ -9276,34 +9216,31 @@
         <v>10</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="15"/>
       <c r="H119" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K119" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="K119" s="47"/>
       <c r="L119" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N119" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="N119" s="47"/>
       <c r="O119" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="R119" s="22"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="1">
-        <v>30</v>
-      </c>
-      <c r="V119" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="R119" s="47"/>
+      <c r="T119" s="47"/>
+      <c r="V119" s="47"/>
       <c r="W119" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z119" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="Z119" s="47"/>
       <c r="AA119" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD119" s="16"/>
       <c r="AE119" s="17"/>
@@ -9324,44 +9261,40 @@
         <v>11</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="15"/>
       <c r="H120" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="17"/>
       <c r="K120" s="19"/>
       <c r="L120" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M120" s="17"/>
       <c r="N120" s="19"/>
       <c r="O120" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
       <c r="R120" s="19"/>
-      <c r="S120" s="16">
-        <v>1</v>
-      </c>
+      <c r="S120" s="16"/>
       <c r="T120" s="19"/>
-      <c r="U120" s="16">
-        <v>30</v>
-      </c>
+      <c r="U120" s="16"/>
       <c r="V120" s="19"/>
       <c r="W120" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X120" s="17"/>
       <c r="Y120" s="17"/>
       <c r="Z120" s="19"/>
       <c r="AA120" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AB120" s="17"/>
       <c r="AC120" s="19"/>
@@ -9384,44 +9317,40 @@
         <v>12</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="15"/>
       <c r="H121" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I121" s="18"/>
       <c r="J121" s="17"/>
       <c r="K121" s="19"/>
       <c r="L121" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M121" s="17"/>
       <c r="N121" s="19"/>
       <c r="O121" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
       <c r="R121" s="19"/>
-      <c r="S121" s="16">
-        <v>1</v>
-      </c>
+      <c r="S121" s="16"/>
       <c r="T121" s="19"/>
-      <c r="U121" s="16">
-        <v>500</v>
-      </c>
+      <c r="U121" s="16"/>
       <c r="V121" s="19"/>
       <c r="W121" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X121" s="17"/>
       <c r="Y121" s="17"/>
       <c r="Z121" s="19"/>
       <c r="AA121" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB121" s="17"/>
       <c r="AC121" s="19"/>
@@ -9444,44 +9373,40 @@
         <v>13</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="15"/>
       <c r="H122" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I122" s="18"/>
       <c r="J122" s="17"/>
       <c r="K122" s="19"/>
       <c r="L122" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M122" s="17"/>
       <c r="N122" s="19"/>
       <c r="O122" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
       <c r="R122" s="19"/>
-      <c r="S122" s="16">
-        <v>1</v>
-      </c>
+      <c r="S122" s="16"/>
       <c r="T122" s="19"/>
-      <c r="U122" s="16">
-        <v>500</v>
-      </c>
+      <c r="U122" s="16"/>
       <c r="V122" s="19"/>
       <c r="W122" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X122" s="17"/>
       <c r="Y122" s="17"/>
       <c r="Z122" s="19"/>
       <c r="AA122" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB122" s="17"/>
       <c r="AC122" s="19"/>
@@ -9504,19 +9429,19 @@
         <v>14</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
       <c r="G123" s="15"/>
       <c r="H123" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I123" s="18"/>
       <c r="J123" s="17"/>
       <c r="K123" s="19"/>
       <c r="L123" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M123" s="17"/>
       <c r="N123" s="19"/>
@@ -9554,19 +9479,19 @@
         <v>15</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
       <c r="G124" s="15"/>
       <c r="H124" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I124" s="18"/>
       <c r="J124" s="17"/>
       <c r="K124" s="19"/>
       <c r="L124" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M124" s="17"/>
       <c r="N124" s="19"/>
@@ -9604,19 +9529,19 @@
         <v>16</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="G125" s="15"/>
       <c r="H125" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I125" s="18"/>
       <c r="J125" s="17"/>
       <c r="K125" s="19"/>
       <c r="L125" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M125" s="17"/>
       <c r="N125" s="19"/>
@@ -9654,19 +9579,19 @@
         <v>17</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="G126" s="15"/>
       <c r="H126" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I126" s="18"/>
       <c r="J126" s="17"/>
       <c r="K126" s="19"/>
       <c r="L126" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M126" s="17"/>
       <c r="N126" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE9E54B-321C-429B-A590-5FE88AABEC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BC3119-C251-47D3-AF56-CD1CC1A879AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -257,25 +257,6 @@
     <t>「1.投稿ボタン」をクリック</t>
     <rPh sb="3" eb="5">
       <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「投稿完了メッセージ」を表示した後、同じ「質問詳細ページ」をロードする。</t>
-    <rPh sb="1" eb="5">
-      <t>トウコウカンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>シツモンショウサイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -564,6 +545,46 @@
   </si>
   <si>
     <t>q_tag05</t>
+  </si>
+  <si>
+    <t>「回答送信確認メッセージ」を表示した後、「OK」が選択された場合、同じ「質問詳細ページ」をロードする。</t>
+    <rPh sb="33" eb="34">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>シツモンショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問詳細＋回答一覧ページ</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>御代田里奈</t>
+    <rPh sb="0" eb="5">
+      <t>ミヨタリナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -938,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -995,6 +1016,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,7 +1092,12 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3772,10 +3799,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4099,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG116" sqref="AG116"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4113,146 +4136,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="46" t="s">
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="48">
+        <v>44356</v>
+      </c>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="49">
+        <v>44357</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="39"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7429,7 +7464,7 @@
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -7514,7 +7549,7 @@
       <c r="B82" s="6"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -7559,7 +7594,7 @@
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -8718,19 +8753,19 @@
         <v>1</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="G110" s="15"/>
       <c r="H110" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="17"/>
       <c r="K110" s="19"/>
       <c r="L110" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M110" s="17"/>
       <c r="N110" s="19"/>
@@ -8768,24 +8803,24 @@
         <v>2</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="15"/>
       <c r="H111" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="17"/>
       <c r="K111" s="19"/>
       <c r="L111" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M111" s="17"/>
       <c r="N111" s="19"/>
       <c r="O111" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
@@ -8795,13 +8830,13 @@
       <c r="U111" s="16"/>
       <c r="V111" s="19"/>
       <c r="W111" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X111" s="17"/>
       <c r="Y111" s="17"/>
       <c r="Z111" s="19"/>
       <c r="AA111" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB111" s="17"/>
       <c r="AC111" s="19"/>
@@ -8824,24 +8859,24 @@
         <v>3</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="15"/>
       <c r="H112" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="17"/>
       <c r="K112" s="19"/>
       <c r="L112" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M112" s="17"/>
       <c r="N112" s="19"/>
       <c r="O112" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
@@ -8851,13 +8886,13 @@
       <c r="U112" s="16"/>
       <c r="V112" s="19"/>
       <c r="W112" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X112" s="17"/>
       <c r="Y112" s="17"/>
       <c r="Z112" s="19"/>
       <c r="AA112" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB112" s="17"/>
       <c r="AC112" s="19"/>
@@ -8880,24 +8915,24 @@
         <v>4</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="15"/>
       <c r="H113" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="17"/>
       <c r="K113" s="19"/>
       <c r="L113" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M113" s="17"/>
       <c r="N113" s="19"/>
       <c r="O113" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
@@ -8907,13 +8942,13 @@
       <c r="U113" s="16"/>
       <c r="V113" s="19"/>
       <c r="W113" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X113" s="17"/>
       <c r="Y113" s="17"/>
       <c r="Z113" s="19"/>
       <c r="AA113" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB113" s="17"/>
       <c r="AC113" s="19"/>
@@ -8936,24 +8971,24 @@
         <v>5</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="15"/>
       <c r="H114" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I114" s="18"/>
       <c r="J114" s="17"/>
       <c r="K114" s="19"/>
       <c r="L114" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M114" s="17"/>
       <c r="N114" s="19"/>
       <c r="O114" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
@@ -8963,13 +8998,13 @@
       <c r="U114" s="16"/>
       <c r="V114" s="19"/>
       <c r="W114" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X114" s="17"/>
       <c r="Y114" s="17"/>
       <c r="Z114" s="19"/>
       <c r="AA114" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB114" s="17"/>
       <c r="AC114" s="19"/>
@@ -8992,24 +9027,24 @@
         <v>6</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
       <c r="H115" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
       <c r="L115" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
       <c r="O115" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
@@ -9019,13 +9054,13 @@
       <c r="U115" s="16"/>
       <c r="V115" s="19"/>
       <c r="W115" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X115" s="17"/>
       <c r="Y115" s="17"/>
       <c r="Z115" s="19"/>
       <c r="AA115" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB115" s="17"/>
       <c r="AC115" s="19"/>
@@ -9048,24 +9083,24 @@
         <v>7</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
       <c r="H116" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="18"/>
       <c r="K116" s="15"/>
       <c r="L116" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M116" s="18"/>
       <c r="N116" s="15"/>
       <c r="O116" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
@@ -9075,13 +9110,13 @@
       <c r="U116" s="18"/>
       <c r="V116" s="15"/>
       <c r="W116" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X116" s="18"/>
       <c r="Y116" s="18"/>
       <c r="Z116" s="15"/>
       <c r="AA116" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB116" s="18"/>
       <c r="AC116" s="15"/>
@@ -9104,24 +9139,24 @@
         <v>8</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="15"/>
       <c r="H117" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="18"/>
       <c r="K117" s="15"/>
       <c r="L117" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M117" s="18"/>
       <c r="N117" s="15"/>
       <c r="O117" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
@@ -9131,13 +9166,13 @@
       <c r="U117" s="18"/>
       <c r="V117" s="15"/>
       <c r="W117" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X117" s="18"/>
       <c r="Y117" s="18"/>
       <c r="Z117" s="15"/>
       <c r="AA117" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB117" s="18"/>
       <c r="AC117" s="15"/>
@@ -9160,24 +9195,24 @@
         <v>9</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="15"/>
       <c r="H118" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
       <c r="K118" s="15"/>
       <c r="L118" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M118" s="18"/>
       <c r="N118" s="15"/>
       <c r="O118" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
@@ -9187,13 +9222,13 @@
       <c r="U118" s="18"/>
       <c r="V118" s="15"/>
       <c r="W118" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X118" s="18"/>
       <c r="Y118" s="18"/>
       <c r="Z118" s="15"/>
       <c r="AA118" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB118" s="18"/>
       <c r="AC118" s="15"/>
@@ -9216,31 +9251,31 @@
         <v>10</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="15"/>
       <c r="H119" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K119" s="47"/>
+        <v>81</v>
+      </c>
+      <c r="K119" s="22"/>
       <c r="L119" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N119" s="47"/>
+        <v>60</v>
+      </c>
+      <c r="N119" s="22"/>
       <c r="O119" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="R119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="V119" s="47"/>
+        <v>55</v>
+      </c>
+      <c r="R119" s="22"/>
+      <c r="T119" s="22"/>
+      <c r="V119" s="22"/>
       <c r="W119" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z119" s="47"/>
+        <v>63</v>
+      </c>
+      <c r="Z119" s="22"/>
       <c r="AA119" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD119" s="16"/>
       <c r="AE119" s="17"/>
@@ -9261,24 +9296,24 @@
         <v>11</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="15"/>
       <c r="H120" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I120" s="18"/>
       <c r="J120" s="17"/>
       <c r="K120" s="19"/>
       <c r="L120" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M120" s="17"/>
       <c r="N120" s="19"/>
       <c r="O120" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
@@ -9288,13 +9323,13 @@
       <c r="U120" s="16"/>
       <c r="V120" s="19"/>
       <c r="W120" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X120" s="17"/>
       <c r="Y120" s="17"/>
       <c r="Z120" s="19"/>
       <c r="AA120" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB120" s="17"/>
       <c r="AC120" s="19"/>
@@ -9317,24 +9352,24 @@
         <v>12</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="15"/>
       <c r="H121" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I121" s="18"/>
       <c r="J121" s="17"/>
       <c r="K121" s="19"/>
       <c r="L121" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M121" s="17"/>
       <c r="N121" s="19"/>
       <c r="O121" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
@@ -9344,13 +9379,13 @@
       <c r="U121" s="16"/>
       <c r="V121" s="19"/>
       <c r="W121" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X121" s="17"/>
       <c r="Y121" s="17"/>
       <c r="Z121" s="19"/>
       <c r="AA121" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB121" s="17"/>
       <c r="AC121" s="19"/>
@@ -9373,24 +9408,24 @@
         <v>13</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="15"/>
       <c r="H122" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I122" s="18"/>
       <c r="J122" s="17"/>
       <c r="K122" s="19"/>
       <c r="L122" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M122" s="17"/>
       <c r="N122" s="19"/>
       <c r="O122" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
@@ -9400,13 +9435,13 @@
       <c r="U122" s="16"/>
       <c r="V122" s="19"/>
       <c r="W122" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X122" s="17"/>
       <c r="Y122" s="17"/>
       <c r="Z122" s="19"/>
       <c r="AA122" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB122" s="17"/>
       <c r="AC122" s="19"/>
@@ -9429,19 +9464,19 @@
         <v>14</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
       <c r="G123" s="15"/>
       <c r="H123" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I123" s="18"/>
       <c r="J123" s="17"/>
       <c r="K123" s="19"/>
       <c r="L123" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M123" s="17"/>
       <c r="N123" s="19"/>
@@ -9479,19 +9514,19 @@
         <v>15</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
       <c r="G124" s="15"/>
       <c r="H124" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I124" s="18"/>
       <c r="J124" s="17"/>
       <c r="K124" s="19"/>
       <c r="L124" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M124" s="17"/>
       <c r="N124" s="19"/>
@@ -9529,19 +9564,19 @@
         <v>16</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="G125" s="15"/>
       <c r="H125" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I125" s="18"/>
       <c r="J125" s="17"/>
       <c r="K125" s="19"/>
       <c r="L125" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M125" s="17"/>
       <c r="N125" s="19"/>
@@ -9579,19 +9614,19 @@
         <v>17</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="G126" s="15"/>
       <c r="H126" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I126" s="18"/>
       <c r="J126" s="17"/>
       <c r="K126" s="19"/>
       <c r="L126" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M126" s="17"/>
       <c r="N126" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BC3119-C251-47D3-AF56-CD1CC1A879AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D1387E-4A6F-4DFA-9920-4632CF098551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -1080,8 +1080,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,12 +1097,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1688,6 +1688,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1751,6 +1756,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1814,6 +1824,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1877,6 +1892,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1940,6 +1960,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4122,17 +4147,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="8.88671875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="3.6640625" style="1"/>
-    <col min="14" max="14" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.625" style="1"/>
+    <col min="11" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.625" style="1"/>
+    <col min="14" max="14" width="5.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -4177,10 +4202,10 @@
       <c r="AC1" s="33"/>
       <c r="AD1" s="33"/>
       <c r="AE1" s="33"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
+      <c r="AG1" s="49"/>
       <c r="AH1" s="40" t="s">
         <v>89</v>
       </c>
@@ -4222,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="43"/>
-      <c r="Y2" s="48">
+      <c r="Y2" s="44">
         <v>44356</v>
       </c>
       <c r="Z2" s="43"/>
@@ -4231,19 +4256,19 @@
       <c r="AC2" s="43"/>
       <c r="AD2" s="43"/>
       <c r="AE2" s="43"/>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="49">
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46">
         <v>44357</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>

--- a/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D1387E-4A6F-4DFA-9920-4632CF098551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AA133C-FA05-410B-BBE7-ACFC891A1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
